--- a/Absorbance(excel)/2017-08-30.xlsx
+++ b/Absorbance(excel)/2017-08-30.xlsx
@@ -63119,6 +63119,3082 @@
         <v>0.5659998162254629</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.4585059309277688</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.45769395323561046</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.4571344793495034</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.4563984491014047</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.45587963126034226</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.45586745634785864</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.4568907628366729</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.45729030303028034</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.4582624412658736</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.4583989075264162</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.460406619302617</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.4620585002700045</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.4660221594470682</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.46885148379309105</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.4734808646815971</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.476018495378605</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.4802901780552759</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.48321817015301327</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.4876847888535266</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.48995633164822344</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.4924368784393783</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.4929517065791959</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.4944656073154635</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.4953067376175724</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.49711380097116</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.4970942427875</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.49681886962343547</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.4947461145691417</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.4937850394413393</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.49234540596994736</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.49254202415656984</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.49143308641296796</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.49105388431166724</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.48949222909172785</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.48988640734228484</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.4905240085551069</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.49305435282351306</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.49466630410494095</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.496723122710086</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.4977725180795105</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.5007242511261231</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.5042513039617474</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.5096849839432247</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.5141749010655735</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.5192842813351115</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.5234123834421152</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.5289584283609281</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.5343112956853884</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0.5409062582627726</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0.5466053684536705</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0.5524141605581967</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0.5573711892082377</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0.5637830277652537</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0.5708525720065085</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0.5792184707256641</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>0.5863910823094173</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>0.5927835542251563</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>0.5974558287361367</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>0.6030543510628665</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>0.6090602010826581</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>0.6172421938586564</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>0.6254511533593817</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>0.6347430284759906</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>0.6441004899014592</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>0.6556764010302537</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>0.668232273988691</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>0.6823652559082533</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>0.6946745446314382</v>
+      </c>
+      <c r="BQ43" t="n">
+        <v>0.7050857898944736</v>
+      </c>
+      <c r="BR43" t="n">
+        <v>0.7125623432920236</v>
+      </c>
+      <c r="BS43" t="n">
+        <v>0.7196961432760764</v>
+      </c>
+      <c r="BT43" t="n">
+        <v>0.7262134185559402</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>0.7329502573419399</v>
+      </c>
+      <c r="BV43" t="n">
+        <v>0.7382149742463611</v>
+      </c>
+      <c r="BW43" t="n">
+        <v>0.7430813548879668</v>
+      </c>
+      <c r="BX43" t="n">
+        <v>0.7472143527173974</v>
+      </c>
+      <c r="BY43" t="n">
+        <v>0.7526481887376651</v>
+      </c>
+      <c r="BZ43" t="n">
+        <v>0.7582495151702446</v>
+      </c>
+      <c r="CA43" t="n">
+        <v>0.7636400624862807</v>
+      </c>
+      <c r="CB43" t="n">
+        <v>0.7661420875532803</v>
+      </c>
+      <c r="CC43" t="n">
+        <v>0.7662456367467207</v>
+      </c>
+      <c r="CD43" t="n">
+        <v>0.76407211000634</v>
+      </c>
+      <c r="CE43" t="n">
+        <v>0.7624369303179128</v>
+      </c>
+      <c r="CF43" t="n">
+        <v>0.7614892111681086</v>
+      </c>
+      <c r="CG43" t="n">
+        <v>0.7616861655137991</v>
+      </c>
+      <c r="CH43" t="n">
+        <v>0.7606299795076489</v>
+      </c>
+      <c r="CI43" t="n">
+        <v>0.7582234206738128</v>
+      </c>
+      <c r="CJ43" t="n">
+        <v>0.7535127430611863</v>
+      </c>
+      <c r="CK43" t="n">
+        <v>0.7480294760867422</v>
+      </c>
+      <c r="CL43" t="n">
+        <v>0.740683964184117</v>
+      </c>
+      <c r="CM43" t="n">
+        <v>0.7315814947714956</v>
+      </c>
+      <c r="CN43" t="n">
+        <v>0.7189776669362623</v>
+      </c>
+      <c r="CO43" t="n">
+        <v>0.7042727388215527</v>
+      </c>
+      <c r="CP43" t="n">
+        <v>0.6883440282139718</v>
+      </c>
+      <c r="CQ43" t="n">
+        <v>0.6737830539419276</v>
+      </c>
+      <c r="CR43" t="n">
+        <v>0.6608897990546745</v>
+      </c>
+      <c r="CS43" t="n">
+        <v>0.649998921650562</v>
+      </c>
+      <c r="CT43" t="n">
+        <v>0.6389641329454451</v>
+      </c>
+      <c r="CU43" t="n">
+        <v>0.6284557428625743</v>
+      </c>
+      <c r="CV43" t="n">
+        <v>0.6176646360450084</v>
+      </c>
+      <c r="CW43" t="n">
+        <v>0.6086489715524404</v>
+      </c>
+      <c r="CX43" t="n">
+        <v>0.6006091897412805</v>
+      </c>
+      <c r="CY43" t="n">
+        <v>0.5940036101908662</v>
+      </c>
+      <c r="CZ43" t="n">
+        <v>0.5868335078157759</v>
+      </c>
+      <c r="DA43" t="n">
+        <v>0.5797514832266497</v>
+      </c>
+      <c r="DB43" t="n">
+        <v>0.5722369033079304</v>
+      </c>
+      <c r="DC43" t="n">
+        <v>0.5665114366664618</v>
+      </c>
+      <c r="DD43" t="n">
+        <v>0.5620617948914348</v>
+      </c>
+      <c r="DE43" t="n">
+        <v>0.5592569311569298</v>
+      </c>
+      <c r="DF43" t="n">
+        <v>0.5559727765365197</v>
+      </c>
+      <c r="DG43" t="n">
+        <v>0.5524151985506478</v>
+      </c>
+      <c r="DH43" t="n">
+        <v>0.5482029151635369</v>
+      </c>
+      <c r="DI43" t="n">
+        <v>0.5450192745670186</v>
+      </c>
+      <c r="DJ43" t="n">
+        <v>0.5425300322638861</v>
+      </c>
+      <c r="DK43" t="n">
+        <v>0.5411912807288503</v>
+      </c>
+      <c r="DL43" t="n">
+        <v>0.5392096251339519</v>
+      </c>
+      <c r="DM43" t="n">
+        <v>0.5370887570405681</v>
+      </c>
+      <c r="DN43" t="n">
+        <v>0.5340828729986663</v>
+      </c>
+      <c r="DO43" t="n">
+        <v>0.5320736589400266</v>
+      </c>
+      <c r="DP43" t="n">
+        <v>0.5306869458920529</v>
+      </c>
+      <c r="DQ43" t="n">
+        <v>0.5301192473512645</v>
+      </c>
+      <c r="DR43" t="n">
+        <v>0.5286654001066825</v>
+      </c>
+      <c r="DS43" t="n">
+        <v>0.5267274341437956</v>
+      </c>
+      <c r="DT43" t="n">
+        <v>0.5240314718332615</v>
+      </c>
+      <c r="DU43" t="n">
+        <v>0.5224473405283178</v>
+      </c>
+      <c r="DV43" t="n">
+        <v>0.5215584218666218</v>
+      </c>
+      <c r="DW43" t="n">
+        <v>0.5218024695475909</v>
+      </c>
+      <c r="DX43" t="n">
+        <v>0.5214343402464638</v>
+      </c>
+      <c r="DY43" t="n">
+        <v>0.5205513456772272</v>
+      </c>
+      <c r="DZ43" t="n">
+        <v>0.5190973327098842</v>
+      </c>
+      <c r="EA43" t="n">
+        <v>0.5183038756386479</v>
+      </c>
+      <c r="EB43" t="n">
+        <v>0.5186043243501993</v>
+      </c>
+      <c r="EC43" t="n">
+        <v>0.5196671619992482</v>
+      </c>
+      <c r="ED43" t="n">
+        <v>0.5201195750396674</v>
+      </c>
+      <c r="EE43" t="n">
+        <v>0.5197168019161907</v>
+      </c>
+      <c r="EF43" t="n">
+        <v>0.5187574169853489</v>
+      </c>
+      <c r="EG43" t="n">
+        <v>0.5188586244826708</v>
+      </c>
+      <c r="EH43" t="n">
+        <v>0.5198864980652732</v>
+      </c>
+      <c r="EI43" t="n">
+        <v>0.5216382054119894</v>
+      </c>
+      <c r="EJ43" t="n">
+        <v>0.5226411233407001</v>
+      </c>
+      <c r="EK43" t="n">
+        <v>0.5227563227798108</v>
+      </c>
+      <c r="EL43" t="n">
+        <v>0.5221611274216016</v>
+      </c>
+      <c r="EM43" t="n">
+        <v>0.5221982333243971</v>
+      </c>
+      <c r="EN43" t="n">
+        <v>0.5231011157738125</v>
+      </c>
+      <c r="EO43" t="n">
+        <v>0.5244619590276284</v>
+      </c>
+      <c r="EP43" t="n">
+        <v>0.5250439603307222</v>
+      </c>
+      <c r="EQ43" t="n">
+        <v>0.5245453688103473</v>
+      </c>
+      <c r="ER43" t="n">
+        <v>0.5238750507178082</v>
+      </c>
+      <c r="ES43" t="n">
+        <v>0.5239726881928171</v>
+      </c>
+      <c r="ET43" t="n">
+        <v>0.5254925734628444</v>
+      </c>
+      <c r="EU43" t="n">
+        <v>0.5274637176926387</v>
+      </c>
+      <c r="EV43" t="n">
+        <v>0.5291386200896112</v>
+      </c>
+      <c r="EW43" t="n">
+        <v>0.5297648926550999</v>
+      </c>
+      <c r="EX43" t="n">
+        <v>0.5302665571221877</v>
+      </c>
+      <c r="EY43" t="n">
+        <v>0.5313296392620815</v>
+      </c>
+      <c r="EZ43" t="n">
+        <v>0.5340114226727101</v>
+      </c>
+      <c r="FA43" t="n">
+        <v>0.5371137872342829</v>
+      </c>
+      <c r="FB43" t="n">
+        <v>0.5402045994809006</v>
+      </c>
+      <c r="FC43" t="n">
+        <v>0.542366233606875</v>
+      </c>
+      <c r="FD43" t="n">
+        <v>0.5450335665797589</v>
+      </c>
+      <c r="FE43" t="n">
+        <v>0.5489077154078396</v>
+      </c>
+      <c r="FF43" t="n">
+        <v>0.5552054929552538</v>
+      </c>
+      <c r="FG43" t="n">
+        <v>0.5630494225220406</v>
+      </c>
+      <c r="FH43" t="n">
+        <v>0.5719631433131587</v>
+      </c>
+      <c r="FI43" t="n">
+        <v>0.5812663505534035</v>
+      </c>
+      <c r="FJ43" t="n">
+        <v>0.5919959006954463</v>
+      </c>
+      <c r="FK43" t="n">
+        <v>0.6055138713460962</v>
+      </c>
+      <c r="FL43" t="n">
+        <v>0.6218232704469703</v>
+      </c>
+      <c r="FM43" t="n">
+        <v>0.6410469434197917</v>
+      </c>
+      <c r="FN43" t="n">
+        <v>0.661088579634083</v>
+      </c>
+      <c r="FO43" t="n">
+        <v>0.681723207041679</v>
+      </c>
+      <c r="FP43" t="n">
+        <v>0.7028857637208795</v>
+      </c>
+      <c r="FQ43" t="n">
+        <v>0.7260841409650375</v>
+      </c>
+      <c r="FR43" t="n">
+        <v>0.750841451985975</v>
+      </c>
+      <c r="FS43" t="n">
+        <v>0.7752980807676467</v>
+      </c>
+      <c r="FT43" t="n">
+        <v>0.7954093533459601</v>
+      </c>
+      <c r="FU43" t="n">
+        <v>0.80749032271219</v>
+      </c>
+      <c r="FV43" t="n">
+        <v>0.8123321515871391</v>
+      </c>
+      <c r="FW43" t="n">
+        <v>0.8142822892066204</v>
+      </c>
+      <c r="FX43" t="n">
+        <v>0.8170470102058699</v>
+      </c>
+      <c r="FY43" t="n">
+        <v>0.821736707853994</v>
+      </c>
+      <c r="FZ43" t="n">
+        <v>0.8260975014247633</v>
+      </c>
+      <c r="GA43" t="n">
+        <v>0.8294147011617583</v>
+      </c>
+      <c r="GB43" t="n">
+        <v>0.8318978013005676</v>
+      </c>
+      <c r="GC43" t="n">
+        <v>0.836024930893509</v>
+      </c>
+      <c r="GD43" t="n">
+        <v>0.8416834078478526</v>
+      </c>
+      <c r="GE43" t="n">
+        <v>0.8485723607556896</v>
+      </c>
+      <c r="GF43" t="n">
+        <v>0.8540180469366415</v>
+      </c>
+      <c r="GG43" t="n">
+        <v>0.8576686385159626</v>
+      </c>
+      <c r="GH43" t="n">
+        <v>0.8590179185777039</v>
+      </c>
+      <c r="GI43" t="n">
+        <v>0.8590889858250451</v>
+      </c>
+      <c r="GJ43" t="n">
+        <v>0.858651093447672</v>
+      </c>
+      <c r="GK43" t="n">
+        <v>0.8571619708342741</v>
+      </c>
+      <c r="GL43" t="n">
+        <v>0.8549551969717225</v>
+      </c>
+      <c r="GM43" t="n">
+        <v>0.8516069259211131</v>
+      </c>
+      <c r="GN43" t="n">
+        <v>0.8493980231340142</v>
+      </c>
+      <c r="GO43" t="n">
+        <v>0.8497473574991787</v>
+      </c>
+      <c r="GP43" t="n">
+        <v>0.8542480727798191</v>
+      </c>
+      <c r="GQ43" t="n">
+        <v>0.8614035847984323</v>
+      </c>
+      <c r="GR43" t="n">
+        <v>0.8695854591245066</v>
+      </c>
+      <c r="GS43" t="n">
+        <v>0.8769282103160424</v>
+      </c>
+      <c r="GT43" t="n">
+        <v>0.8841524098976857</v>
+      </c>
+      <c r="GU43" t="n">
+        <v>0.8913616341387925</v>
+      </c>
+      <c r="GV43" t="n">
+        <v>0.8985647729734592</v>
+      </c>
+      <c r="GW43" t="n">
+        <v>0.9037735439293133</v>
+      </c>
+      <c r="GX43" t="n">
+        <v>0.9060109715111777</v>
+      </c>
+      <c r="GY43" t="n">
+        <v>0.9036587218147056</v>
+      </c>
+      <c r="GZ43" t="n">
+        <v>0.8981721910335242</v>
+      </c>
+      <c r="HA43" t="n">
+        <v>0.8903134236475355</v>
+      </c>
+      <c r="HB43" t="n">
+        <v>0.8817449884790298</v>
+      </c>
+      <c r="HC43" t="n">
+        <v>0.8719139643017542</v>
+      </c>
+      <c r="HD43" t="n">
+        <v>0.8605157842346303</v>
+      </c>
+      <c r="HE43" t="n">
+        <v>0.8475087270639565</v>
+      </c>
+      <c r="HF43" t="n">
+        <v>0.8342612664394595</v>
+      </c>
+      <c r="HG43" t="n">
+        <v>0.8225661678237177</v>
+      </c>
+      <c r="HH43" t="n">
+        <v>0.813395593905138</v>
+      </c>
+      <c r="HI43" t="n">
+        <v>0.8055726360223316</v>
+      </c>
+      <c r="HJ43" t="n">
+        <v>0.7980523880060519</v>
+      </c>
+      <c r="HK43" t="n">
+        <v>0.7900847828846502</v>
+      </c>
+      <c r="HL43" t="n">
+        <v>0.7827103603796627</v>
+      </c>
+      <c r="HM43" t="n">
+        <v>0.7767333726677026</v>
+      </c>
+      <c r="HN43" t="n">
+        <v>0.7732858047512277</v>
+      </c>
+      <c r="HO43" t="n">
+        <v>0.7715465159344882</v>
+      </c>
+      <c r="HP43" t="n">
+        <v>0.7703137479967129</v>
+      </c>
+      <c r="HQ43" t="n">
+        <v>0.7689866326333351</v>
+      </c>
+      <c r="HR43" t="n">
+        <v>0.7685169212723051</v>
+      </c>
+      <c r="HS43" t="n">
+        <v>0.7695508503323443</v>
+      </c>
+      <c r="HT43" t="n">
+        <v>0.7729022625451637</v>
+      </c>
+      <c r="HU43" t="n">
+        <v>0.7770099417685575</v>
+      </c>
+      <c r="HV43" t="n">
+        <v>0.7811647908840874</v>
+      </c>
+      <c r="HW43" t="n">
+        <v>0.7840012453026551</v>
+      </c>
+      <c r="HX43" t="n">
+        <v>0.7871258229757189</v>
+      </c>
+      <c r="HY43" t="n">
+        <v>0.7917490549005931</v>
+      </c>
+      <c r="HZ43" t="n">
+        <v>0.7989665206914527</v>
+      </c>
+      <c r="IA43" t="n">
+        <v>0.8072297299388232</v>
+      </c>
+      <c r="IB43" t="n">
+        <v>0.8160123478208567</v>
+      </c>
+      <c r="IC43" t="n">
+        <v>0.8241127794494366</v>
+      </c>
+      <c r="ID43" t="n">
+        <v>0.8329027258636925</v>
+      </c>
+      <c r="IE43" t="n">
+        <v>0.8429833356566413</v>
+      </c>
+      <c r="IF43" t="n">
+        <v>0.8550302935400261</v>
+      </c>
+      <c r="IG43" t="n">
+        <v>0.8682215440276355</v>
+      </c>
+      <c r="IH43" t="n">
+        <v>0.8808522416313227</v>
+      </c>
+      <c r="II43" t="n">
+        <v>0.8914972981791771</v>
+      </c>
+      <c r="IJ43" t="n">
+        <v>0.9007579737455603</v>
+      </c>
+      <c r="IK43" t="n">
+        <v>0.9088761440064071</v>
+      </c>
+      <c r="IL43" t="n">
+        <v>0.916617328524755</v>
+      </c>
+      <c r="IM43" t="n">
+        <v>0.9221984442545805</v>
+      </c>
+      <c r="IN43" t="n">
+        <v>0.9252914180750647</v>
+      </c>
+      <c r="IO43" t="n">
+        <v>0.9244146210214377</v>
+      </c>
+      <c r="IP43" t="n">
+        <v>0.9221673879652434</v>
+      </c>
+      <c r="IQ43" t="n">
+        <v>0.9198635146886888</v>
+      </c>
+      <c r="IR43" t="n">
+        <v>0.9199059907993239</v>
+      </c>
+      <c r="IS43" t="n">
+        <v>0.9207332043402684</v>
+      </c>
+      <c r="IT43" t="n">
+        <v>0.921470221241765</v>
+      </c>
+      <c r="IU43" t="n">
+        <v>0.9201766989683013</v>
+      </c>
+      <c r="IV43" t="n">
+        <v>0.9179528580514373</v>
+      </c>
+      <c r="IW43" t="n">
+        <v>0.9145691510980571</v>
+      </c>
+      <c r="IX43" t="n">
+        <v>0.9108555224354015</v>
+      </c>
+      <c r="IY43" t="n">
+        <v>0.904454313559876</v>
+      </c>
+      <c r="IZ43" t="n">
+        <v>0.8949866657984497</v>
+      </c>
+      <c r="JA43" t="n">
+        <v>0.8811653260097203</v>
+      </c>
+      <c r="JB43" t="n">
+        <v>0.8658996556044266</v>
+      </c>
+      <c r="JC43" t="n">
+        <v>0.8500965260700186</v>
+      </c>
+      <c r="JD43" t="n">
+        <v>0.8364127570948546</v>
+      </c>
+      <c r="JE43" t="n">
+        <v>0.8232213902002623</v>
+      </c>
+      <c r="JF43" t="n">
+        <v>0.8107294917150145</v>
+      </c>
+      <c r="JG43" t="n">
+        <v>0.7980679051437949</v>
+      </c>
+      <c r="JH43" t="n">
+        <v>0.7869113075410352</v>
+      </c>
+      <c r="JI43" t="n">
+        <v>0.7782144514853367</v>
+      </c>
+      <c r="JJ43" t="n">
+        <v>0.7729366166146937</v>
+      </c>
+      <c r="JK43" t="n">
+        <v>0.7698783630834523</v>
+      </c>
+      <c r="JL43" t="n">
+        <v>0.7681970828082351</v>
+      </c>
+      <c r="JM43" t="n">
+        <v>0.7669722305465991</v>
+      </c>
+      <c r="JN43" t="n">
+        <v>0.7668450832320751</v>
+      </c>
+      <c r="JO43" t="n">
+        <v>0.7689016534142465</v>
+      </c>
+      <c r="JP43" t="n">
+        <v>0.7735055134870408</v>
+      </c>
+      <c r="JQ43" t="n">
+        <v>0.7803916040293256</v>
+      </c>
+      <c r="JR43" t="n">
+        <v>0.7877270603753809</v>
+      </c>
+      <c r="JS43" t="n">
+        <v>0.7949024366276239</v>
+      </c>
+      <c r="JT43" t="n">
+        <v>0.8012901786112012</v>
+      </c>
+      <c r="JU43" t="n">
+        <v>0.8075538522702597</v>
+      </c>
+      <c r="JV43" t="n">
+        <v>0.8139128197905525</v>
+      </c>
+      <c r="JW43" t="n">
+        <v>0.8197224318719842</v>
+      </c>
+      <c r="JX43" t="n">
+        <v>0.8240510528225882</v>
+      </c>
+      <c r="JY43" t="n">
+        <v>0.8262103464091756</v>
+      </c>
+      <c r="JZ43" t="n">
+        <v>0.8275921032787835</v>
+      </c>
+      <c r="KA43" t="n">
+        <v>0.8301949682404922</v>
+      </c>
+      <c r="KB43" t="n">
+        <v>0.8351914171554908</v>
+      </c>
+      <c r="KC43" t="n">
+        <v>0.842033156223913</v>
+      </c>
+      <c r="KD43" t="n">
+        <v>0.8486450152399428</v>
+      </c>
+      <c r="KE43" t="n">
+        <v>0.8540188972615209</v>
+      </c>
+      <c r="KF43" t="n">
+        <v>0.8593287072957572</v>
+      </c>
+      <c r="KG43" t="n">
+        <v>0.8661544203343949</v>
+      </c>
+      <c r="KH43" t="n">
+        <v>0.8748637372300345</v>
+      </c>
+      <c r="KI43" t="n">
+        <v>0.8844604818766415</v>
+      </c>
+      <c r="KJ43" t="n">
+        <v>0.8929674774630014</v>
+      </c>
+      <c r="KK43" t="n">
+        <v>0.8998458730712688</v>
+      </c>
+      <c r="KL43" t="n">
+        <v>0.9048890502306328</v>
+      </c>
+      <c r="KM43" t="n">
+        <v>0.9104804476457244</v>
+      </c>
+      <c r="KN43" t="n">
+        <v>0.9171303812489423</v>
+      </c>
+      <c r="KO43" t="n">
+        <v>0.9255596346366893</v>
+      </c>
+      <c r="KP43" t="n">
+        <v>0.9329554105004271</v>
+      </c>
+      <c r="KQ43" t="n">
+        <v>0.9386902904828756</v>
+      </c>
+      <c r="KR43" t="n">
+        <v>0.9434232449769996</v>
+      </c>
+      <c r="KS43" t="n">
+        <v>0.9490754773787354</v>
+      </c>
+      <c r="KT43" t="n">
+        <v>0.9562095476102688</v>
+      </c>
+      <c r="KU43" t="n">
+        <v>0.9640370241540969</v>
+      </c>
+      <c r="KV43" t="n">
+        <v>0.9708980596016192</v>
+      </c>
+      <c r="KW43" t="n">
+        <v>0.9768611718882664</v>
+      </c>
+      <c r="KX43" t="n">
+        <v>0.9819142150897942</v>
+      </c>
+      <c r="KY43" t="n">
+        <v>0.9873661145449258</v>
+      </c>
+      <c r="KZ43" t="n">
+        <v>0.9934128453500884</v>
+      </c>
+      <c r="LA43" t="n">
+        <v>0.99906041226566</v>
+      </c>
+      <c r="LB43" t="n">
+        <v>1.0026202639603545</v>
+      </c>
+      <c r="LC43" t="n">
+        <v>1.003378366395328</v>
+      </c>
+      <c r="LD43" t="n">
+        <v>1.0018570881235414</v>
+      </c>
+      <c r="LE43" t="n">
+        <v>0.9999570653569662</v>
+      </c>
+      <c r="LF43" t="n">
+        <v>0.9982531181127119</v>
+      </c>
+      <c r="LG43" t="n">
+        <v>0.9965816943942853</v>
+      </c>
+      <c r="LH43" t="n">
+        <v>0.9932004321378021</v>
+      </c>
+      <c r="LI43" t="n">
+        <v>0.98843658203929</v>
+      </c>
+      <c r="LJ43" t="n">
+        <v>0.9833900975916566</v>
+      </c>
+      <c r="LK43" t="n">
+        <v>0.9810113994446769</v>
+      </c>
+      <c r="LL43" t="n">
+        <v>0.9818239551660791</v>
+      </c>
+      <c r="LM43" t="n">
+        <v>0.9857410076025643</v>
+      </c>
+      <c r="LN43" t="n">
+        <v>0.9908463698114005</v>
+      </c>
+      <c r="LO43" t="n">
+        <v>0.9974483431014216</v>
+      </c>
+      <c r="LP43" t="n">
+        <v>1.006149613781576</v>
+      </c>
+      <c r="LQ43" t="n">
+        <v>1.0190756942602457</v>
+      </c>
+      <c r="LR43" t="n">
+        <v>1.0365154510585342</v>
+      </c>
+      <c r="LS43" t="n">
+        <v>1.0585421631642746</v>
+      </c>
+      <c r="LT43" t="n">
+        <v>1.0834233669382054</v>
+      </c>
+      <c r="LU43" t="n">
+        <v>1.1092603943067645</v>
+      </c>
+      <c r="LV43" t="n">
+        <v>1.1356220804075443</v>
+      </c>
+      <c r="LW43" t="n">
+        <v>1.162963447301569</v>
+      </c>
+      <c r="LX43" t="n">
+        <v>1.1919245696503358</v>
+      </c>
+      <c r="LY43" t="n">
+        <v>1.2221226308981565</v>
+      </c>
+      <c r="LZ43" t="n">
+        <v>1.2531175745545602</v>
+      </c>
+      <c r="MA43" t="n">
+        <v>1.283420185551149</v>
+      </c>
+      <c r="MB43" t="n">
+        <v>1.313277842285493</v>
+      </c>
+      <c r="MC43" t="n">
+        <v>1.3416892026982166</v>
+      </c>
+      <c r="MD43" t="n">
+        <v>1.367105290849808</v>
+      </c>
+      <c r="ME43" t="n">
+        <v>1.387750617497298</v>
+      </c>
+      <c r="MF43" t="n">
+        <v>1.4013357682553647</v>
+      </c>
+      <c r="MG43" t="n">
+        <v>1.4082850715547528</v>
+      </c>
+      <c r="MH43" t="n">
+        <v>1.412688882916194</v>
+      </c>
+      <c r="MI43" t="n">
+        <v>1.4190748204875856</v>
+      </c>
+      <c r="MJ43" t="n">
+        <v>1.4291848205371565</v>
+      </c>
+      <c r="MK43" t="n">
+        <v>1.441844881973053</v>
+      </c>
+      <c r="ML43" t="n">
+        <v>1.4536233425306468</v>
+      </c>
+      <c r="MM43" t="n">
+        <v>1.4618605510262825</v>
+      </c>
+      <c r="MN43" t="n">
+        <v>1.4654124508624526</v>
+      </c>
+      <c r="MO43" t="n">
+        <v>1.4666788505960633</v>
+      </c>
+      <c r="MP43" t="n">
+        <v>1.4661025271221475</v>
+      </c>
+      <c r="MQ43" t="n">
+        <v>1.4650571369257435</v>
+      </c>
+      <c r="MR43" t="n">
+        <v>1.4616012524391062</v>
+      </c>
+      <c r="MS43" t="n">
+        <v>1.4568466988241928</v>
+      </c>
+      <c r="MT43" t="n">
+        <v>1.4511482254487265</v>
+      </c>
+      <c r="MU43" t="n">
+        <v>1.4476500791288067</v>
+      </c>
+      <c r="MV43" t="n">
+        <v>1.4464720968305171</v>
+      </c>
+      <c r="MW43" t="n">
+        <v>1.4479800981125053</v>
+      </c>
+      <c r="MX43" t="n">
+        <v>1.449673435880837</v>
+      </c>
+      <c r="MY43" t="n">
+        <v>1.4507919262729148</v>
+      </c>
+      <c r="MZ43" t="n">
+        <v>1.4510870615738032</v>
+      </c>
+      <c r="NA43" t="n">
+        <v>1.4524387362716207</v>
+      </c>
+      <c r="NB43" t="n">
+        <v>1.4554043136155648</v>
+      </c>
+      <c r="NC43" t="n">
+        <v>1.4591379978136778</v>
+      </c>
+      <c r="ND43" t="n">
+        <v>1.4611890201739095</v>
+      </c>
+      <c r="NE43" t="n">
+        <v>1.4605894210647903</v>
+      </c>
+      <c r="NF43" t="n">
+        <v>1.4586205576019782</v>
+      </c>
+      <c r="NG43" t="n">
+        <v>1.4573795294524692</v>
+      </c>
+      <c r="NH43" t="n">
+        <v>1.458614901312611</v>
+      </c>
+      <c r="NI43" t="n">
+        <v>1.4601707421856056</v>
+      </c>
+      <c r="NJ43" t="n">
+        <v>1.4608292248718644</v>
+      </c>
+      <c r="NK43" t="n">
+        <v>1.4586548507967687</v>
+      </c>
+      <c r="NL43" t="n">
+        <v>1.4556261787454163</v>
+      </c>
+      <c r="NM43" t="n">
+        <v>1.4535184499821594</v>
+      </c>
+      <c r="NN43" t="n">
+        <v>1.4538347109600214</v>
+      </c>
+      <c r="NO43" t="n">
+        <v>1.4557097751255708</v>
+      </c>
+      <c r="NP43" t="n">
+        <v>1.4567475897096727</v>
+      </c>
+      <c r="NQ43" t="n">
+        <v>1.4556856393749882</v>
+      </c>
+      <c r="NR43" t="n">
+        <v>1.453911100573726</v>
+      </c>
+      <c r="NS43" t="n">
+        <v>1.4532370137095387</v>
+      </c>
+      <c r="NT43" t="n">
+        <v>1.455111819346409</v>
+      </c>
+      <c r="NU43" t="n">
+        <v>1.4580466776981456</v>
+      </c>
+      <c r="NV43" t="n">
+        <v>1.4600720864202108</v>
+      </c>
+      <c r="NW43" t="n">
+        <v>1.4602763250625759</v>
+      </c>
+      <c r="NX43" t="n">
+        <v>1.4593442163591146</v>
+      </c>
+      <c r="NY43" t="n">
+        <v>1.4601056465664037</v>
+      </c>
+      <c r="NZ43" t="n">
+        <v>1.4631086936835374</v>
+      </c>
+      <c r="OA43" t="n">
+        <v>1.4666564003897231</v>
+      </c>
+      <c r="OB43" t="n">
+        <v>1.4683751347170808</v>
+      </c>
+      <c r="OC43" t="n">
+        <v>1.4670472103666559</v>
+      </c>
+      <c r="OD43" t="n">
+        <v>1.4634685827752003</v>
+      </c>
+      <c r="OE43" t="n">
+        <v>1.4598267155358877</v>
+      </c>
+      <c r="OF43" t="n">
+        <v>1.4566229773677997</v>
+      </c>
+      <c r="OG43" t="n">
+        <v>1.453302207925359</v>
+      </c>
+      <c r="OH43" t="n">
+        <v>1.447410765386007</v>
+      </c>
+      <c r="OI43" t="n">
+        <v>1.4379481324223884</v>
+      </c>
+      <c r="OJ43" t="n">
+        <v>1.4268572150397603</v>
+      </c>
+      <c r="OK43" t="n">
+        <v>1.4160427494426326</v>
+      </c>
+      <c r="OL43" t="n">
+        <v>1.4065811835558417</v>
+      </c>
+      <c r="OM43" t="n">
+        <v>1.3972668445805803</v>
+      </c>
+      <c r="ON43" t="n">
+        <v>1.3856652989402318</v>
+      </c>
+      <c r="OO43" t="n">
+        <v>1.371955531902343</v>
+      </c>
+      <c r="OP43" t="n">
+        <v>1.3566945393931826</v>
+      </c>
+      <c r="OQ43" t="n">
+        <v>1.342444820812314</v>
+      </c>
+      <c r="OR43" t="n">
+        <v>1.3301854523402445</v>
+      </c>
+      <c r="OS43" t="n">
+        <v>1.3192471727643942</v>
+      </c>
+      <c r="OT43" t="n">
+        <v>1.3073281151841332</v>
+      </c>
+      <c r="OU43" t="n">
+        <v>1.2939568745796386</v>
+      </c>
+      <c r="OV43" t="n">
+        <v>1.2798082999959737</v>
+      </c>
+      <c r="OW43" t="n">
+        <v>1.2676270163561614</v>
+      </c>
+      <c r="OX43" t="n">
+        <v>1.257317864335774</v>
+      </c>
+      <c r="OY43" t="n">
+        <v>1.2483250796123437</v>
+      </c>
+      <c r="OZ43" t="n">
+        <v>1.2380506521054853</v>
+      </c>
+      <c r="PA43" t="n">
+        <v>1.2262279639958713</v>
+      </c>
+      <c r="PB43" t="n">
+        <v>1.2128153121455425</v>
+      </c>
+      <c r="PC43" t="n">
+        <v>1.2002622110944037</v>
+      </c>
+      <c r="PD43" t="n">
+        <v>1.1885714687037134</v>
+      </c>
+      <c r="PE43" t="n">
+        <v>1.1767389076835952</v>
+      </c>
+      <c r="PF43" t="n">
+        <v>1.1622510844019007</v>
+      </c>
+      <c r="PG43" t="n">
+        <v>1.1449533288051252</v>
+      </c>
+      <c r="PH43" t="n">
+        <v>1.1250102160185953</v>
+      </c>
+      <c r="PI43" t="n">
+        <v>1.1049392834799554</v>
+      </c>
+      <c r="PJ43" t="n">
+        <v>1.0860924466568593</v>
+      </c>
+      <c r="PK43" t="n">
+        <v>1.0685923510947608</v>
+      </c>
+      <c r="PL43" t="n">
+        <v>1.0503968556042873</v>
+      </c>
+      <c r="PM43" t="n">
+        <v>1.0317501150755355</v>
+      </c>
+      <c r="PN43" t="n">
+        <v>1.0136124682949539</v>
+      </c>
+      <c r="PO43" t="n">
+        <v>0.9978729323196206</v>
+      </c>
+      <c r="PP43" t="n">
+        <v>0.9854832068842985</v>
+      </c>
+      <c r="PQ43" t="n">
+        <v>0.9754609538410146</v>
+      </c>
+      <c r="PR43" t="n">
+        <v>0.9659688854248202</v>
+      </c>
+      <c r="PS43" t="n">
+        <v>0.9561619741780657</v>
+      </c>
+      <c r="PT43" t="n">
+        <v>0.9464457344920016</v>
+      </c>
+      <c r="PU43" t="n">
+        <v>0.9387592981465204</v>
+      </c>
+      <c r="PV43" t="n">
+        <v>0.9336064816029639</v>
+      </c>
+      <c r="PW43" t="n">
+        <v>0.9302763138707838</v>
+      </c>
+      <c r="PX43" t="n">
+        <v>0.926758108153001</v>
+      </c>
+      <c r="PY43" t="n">
+        <v>0.9225067813297887</v>
+      </c>
+      <c r="PZ43" t="n">
+        <v>0.9180703200202015</v>
+      </c>
+      <c r="QA43" t="n">
+        <v>0.9148203521599577</v>
+      </c>
+      <c r="QB43" t="n">
+        <v>0.9131919585529669</v>
+      </c>
+      <c r="QC43" t="n">
+        <v>0.9124886666883311</v>
+      </c>
+      <c r="QD43" t="n">
+        <v>0.9115396526257568</v>
+      </c>
+      <c r="QE43" t="n">
+        <v>0.9094896712414838</v>
+      </c>
+      <c r="QF43" t="n">
+        <v>0.9072355872008849</v>
+      </c>
+      <c r="QG43" t="n">
+        <v>0.9058820406331412</v>
+      </c>
+      <c r="QH43" t="n">
+        <v>0.9065244561168783</v>
+      </c>
+      <c r="QI43" t="n">
+        <v>0.907936210572337</v>
+      </c>
+      <c r="QJ43" t="n">
+        <v>0.9094114924727777</v>
+      </c>
+      <c r="QK43" t="n">
+        <v>0.9096266932462503</v>
+      </c>
+      <c r="QL43" t="n">
+        <v>0.9096414854918129</v>
+      </c>
+      <c r="QM43" t="n">
+        <v>0.9107772397678979</v>
+      </c>
+      <c r="QN43" t="n">
+        <v>0.9137666994774466</v>
+      </c>
+      <c r="QO43" t="n">
+        <v>0.9180552496819742</v>
+      </c>
+      <c r="QP43" t="n">
+        <v>0.9220930196112538</v>
+      </c>
+      <c r="QQ43" t="n">
+        <v>0.9250278700895896</v>
+      </c>
+      <c r="QR43" t="n">
+        <v>0.9274385617888156</v>
+      </c>
+      <c r="QS43" t="n">
+        <v>0.9303695550775657</v>
+      </c>
+      <c r="QT43" t="n">
+        <v>0.9347428062578282</v>
+      </c>
+      <c r="QU43" t="n">
+        <v>0.9395437538470981</v>
+      </c>
+      <c r="QV43" t="n">
+        <v>0.9433673129598312</v>
+      </c>
+      <c r="QW43" t="n">
+        <v>0.9446295479910636</v>
+      </c>
+      <c r="QX43" t="n">
+        <v>0.944213186150367</v>
+      </c>
+      <c r="QY43" t="n">
+        <v>0.9432833285817892</v>
+      </c>
+      <c r="QZ43" t="n">
+        <v>0.9421444750688277</v>
+      </c>
+      <c r="RA43" t="n">
+        <v>0.9398644112897281</v>
+      </c>
+      <c r="RB43" t="n">
+        <v>0.9350352862487344</v>
+      </c>
+      <c r="RC43" t="n">
+        <v>0.9268902611870269</v>
+      </c>
+      <c r="RD43" t="n">
+        <v>0.9168525506640258</v>
+      </c>
+      <c r="RE43" t="n">
+        <v>0.9064116683779831</v>
+      </c>
+      <c r="RF43" t="n">
+        <v>0.8955381652325088</v>
+      </c>
+      <c r="RG43" t="n">
+        <v>0.8849352551137394</v>
+      </c>
+      <c r="RH43" t="n">
+        <v>0.8740500722884796</v>
+      </c>
+      <c r="RI43" t="n">
+        <v>0.8637302637941121</v>
+      </c>
+      <c r="RJ43" t="n">
+        <v>0.853357385603401</v>
+      </c>
+      <c r="RK43" t="n">
+        <v>0.843935270895746</v>
+      </c>
+      <c r="RL43" t="n">
+        <v>0.834771059484433</v>
+      </c>
+      <c r="RM43" t="n">
+        <v>0.8263346293695907</v>
+      </c>
+      <c r="RN43" t="n">
+        <v>0.8167059814312018</v>
+      </c>
+      <c r="RO43" t="n">
+        <v>0.8061021752310366</v>
+      </c>
+      <c r="RP43" t="n">
+        <v>0.7951683070290496</v>
+      </c>
+      <c r="RQ43" t="n">
+        <v>0.7846348793833533</v>
+      </c>
+      <c r="RR43" t="n">
+        <v>0.7752011408635726</v>
+      </c>
+      <c r="RS43" t="n">
+        <v>0.7657470295841879</v>
+      </c>
+      <c r="RT43" t="n">
+        <v>0.7562216594154539</v>
+      </c>
+      <c r="RU43" t="n">
+        <v>0.7456046632931514</v>
+      </c>
+      <c r="RV43" t="n">
+        <v>0.7348169957571482</v>
+      </c>
+      <c r="RW43" t="n">
+        <v>0.7245636862581488</v>
+      </c>
+      <c r="RX43" t="n">
+        <v>0.7149073257825456</v>
+      </c>
+      <c r="RY43" t="n">
+        <v>0.7061067535184992</v>
+      </c>
+      <c r="RZ43" t="n">
+        <v>0.6967309161854123</v>
+      </c>
+      <c r="SA43" t="n">
+        <v>0.6870933015068409</v>
+      </c>
+      <c r="SB43" t="n">
+        <v>0.6766835838532314</v>
+      </c>
+      <c r="SC43" t="n">
+        <v>0.6670790585701499</v>
+      </c>
+      <c r="SD43" t="n">
+        <v>0.6577475540460225</v>
+      </c>
+      <c r="SE43" t="n">
+        <v>0.6491181459211456</v>
+      </c>
+      <c r="SF43" t="n">
+        <v>0.6398527263833987</v>
+      </c>
+      <c r="SG43" t="n">
+        <v>0.6311331985893489</v>
+      </c>
+      <c r="SH43" t="n">
+        <v>0.6218143700497871</v>
+      </c>
+      <c r="SI43" t="n">
+        <v>0.6132813487275691</v>
+      </c>
+      <c r="SJ43" t="n">
+        <v>0.6053183686258626</v>
+      </c>
+      <c r="SK43" t="n">
+        <v>0.598274685778749</v>
+      </c>
+      <c r="SL43" t="n">
+        <v>0.5908569871559229</v>
+      </c>
+      <c r="SM43" t="n">
+        <v>0.5831057767686733</v>
+      </c>
+      <c r="SN43" t="n">
+        <v>0.5750553318206394</v>
+      </c>
+      <c r="SO43" t="n">
+        <v>0.5682122469743629</v>
+      </c>
+      <c r="SP43" t="n">
+        <v>0.5620447872078227</v>
+      </c>
+      <c r="SQ43" t="n">
+        <v>0.5567020843584329</v>
+      </c>
+      <c r="SR43" t="n">
+        <v>0.5509201525295325</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.46018237367046255</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.459360638446886</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.45878497049458217</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.45805608225493827</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.4575465312241126</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.4575473374392881</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.45851367030080525</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.45884962079666725</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.4598171330753291</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4600229514365546</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.46206322329047944</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.46367300522793864</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.46765516851767697</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.4705016956325534</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.4752403775475342</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.47773772931542424</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.48197631738618274</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.4848906668055157</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.4893322952588198</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.49163318814835444</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.49408090661569587</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.4945870237375166</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.4960858350535116</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.49688441869232647</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.4987240706303556</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.49872794418055877</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.49849669232519145</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.49642030875386917</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.49542576051952003</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.4939823762812791</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.4942071403485178</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.49307246217221123</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.49267811028261943</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.49109298125429124</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.491520043314922</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.49214902274688466</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.49467578300564147</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.4962623692538872</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.49834693804011204</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.4993639778691081</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.5023278604804059</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.505855134842691</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.5113005225746053</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.5158088693354993</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.5208914222896669</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.5250270163072752</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.5305645024470081</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.5359153855513747</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0.5425411754379956</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0.5482205907410846</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0.5540060270054834</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0.5589587669906815</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0.5653649173311692</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0.5724000896729499</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0.5807078276966774</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0.587857756790859</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0.5942929054441357</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>0.5989387425749756</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>0.6045310504388463</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>0.6104960345285656</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>0.6186583618859266</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>0.6268314967932439</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>0.6360469450066187</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>0.6453063891384166</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>0.656763809462224</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>0.66919500298955</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>0.6832392479802932</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>0.6954699297303933</v>
+      </c>
+      <c r="BQ44" t="n">
+        <v>0.7058583381549907</v>
+      </c>
+      <c r="BR44" t="n">
+        <v>0.713303541088852</v>
+      </c>
+      <c r="BS44" t="n">
+        <v>0.7204204018625472</v>
+      </c>
+      <c r="BT44" t="n">
+        <v>0.7268682691802187</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>0.733510550921261</v>
+      </c>
+      <c r="BV44" t="n">
+        <v>0.7386857513934034</v>
+      </c>
+      <c r="BW44" t="n">
+        <v>0.7435509700790158</v>
+      </c>
+      <c r="BX44" t="n">
+        <v>0.7476549577162758</v>
+      </c>
+      <c r="BY44" t="n">
+        <v>0.7530461331600633</v>
+      </c>
+      <c r="BZ44" t="n">
+        <v>0.7585833986967205</v>
+      </c>
+      <c r="CA44" t="n">
+        <v>0.7640294494415892</v>
+      </c>
+      <c r="CB44" t="n">
+        <v>0.7664965249335374</v>
+      </c>
+      <c r="CC44" t="n">
+        <v>0.7666223761634609</v>
+      </c>
+      <c r="CD44" t="n">
+        <v>0.7643988450582467</v>
+      </c>
+      <c r="CE44" t="n">
+        <v>0.7628211668472625</v>
+      </c>
+      <c r="CF44" t="n">
+        <v>0.7618375216429126</v>
+      </c>
+      <c r="CG44" t="n">
+        <v>0.7620603467366269</v>
+      </c>
+      <c r="CH44" t="n">
+        <v>0.7610780736632842</v>
+      </c>
+      <c r="CI44" t="n">
+        <v>0.7587032640671191</v>
+      </c>
+      <c r="CJ44" t="n">
+        <v>0.7540018361165234</v>
+      </c>
+      <c r="CK44" t="n">
+        <v>0.7484867340100609</v>
+      </c>
+      <c r="CL44" t="n">
+        <v>0.741215928251754</v>
+      </c>
+      <c r="CM44" t="n">
+        <v>0.7322178188423443</v>
+      </c>
+      <c r="CN44" t="n">
+        <v>0.7197498479049839</v>
+      </c>
+      <c r="CO44" t="n">
+        <v>0.7051651212120462</v>
+      </c>
+      <c r="CP44" t="n">
+        <v>0.6893346975498941</v>
+      </c>
+      <c r="CQ44" t="n">
+        <v>0.6748384615891629</v>
+      </c>
+      <c r="CR44" t="n">
+        <v>0.6620590047620124</v>
+      </c>
+      <c r="CS44" t="n">
+        <v>0.65123389738024</v>
+      </c>
+      <c r="CT44" t="n">
+        <v>0.6403262498934728</v>
+      </c>
+      <c r="CU44" t="n">
+        <v>0.6298472558960905</v>
+      </c>
+      <c r="CV44" t="n">
+        <v>0.6191376286719926</v>
+      </c>
+      <c r="CW44" t="n">
+        <v>0.610143253956208</v>
+      </c>
+      <c r="CX44" t="n">
+        <v>0.6021375106603636</v>
+      </c>
+      <c r="CY44" t="n">
+        <v>0.5955579954891973</v>
+      </c>
+      <c r="CZ44" t="n">
+        <v>0.5883773128490978</v>
+      </c>
+      <c r="DA44" t="n">
+        <v>0.5812886906372029</v>
+      </c>
+      <c r="DB44" t="n">
+        <v>0.5737989928219799</v>
+      </c>
+      <c r="DC44" t="n">
+        <v>0.5681064505850393</v>
+      </c>
+      <c r="DD44" t="n">
+        <v>0.5636992422955219</v>
+      </c>
+      <c r="DE44" t="n">
+        <v>0.5608986339610603</v>
+      </c>
+      <c r="DF44" t="n">
+        <v>0.5576304614042495</v>
+      </c>
+      <c r="DG44" t="n">
+        <v>0.5540612020906018</v>
+      </c>
+      <c r="DH44" t="n">
+        <v>0.5498435252158765</v>
+      </c>
+      <c r="DI44" t="n">
+        <v>0.5466448345621391</v>
+      </c>
+      <c r="DJ44" t="n">
+        <v>0.5441997439459815</v>
+      </c>
+      <c r="DK44" t="n">
+        <v>0.542875799467789</v>
+      </c>
+      <c r="DL44" t="n">
+        <v>0.540903068581167</v>
+      </c>
+      <c r="DM44" t="n">
+        <v>0.538727740347829</v>
+      </c>
+      <c r="DN44" t="n">
+        <v>0.5357026056599642</v>
+      </c>
+      <c r="DO44" t="n">
+        <v>0.5337197073265925</v>
+      </c>
+      <c r="DP44" t="n">
+        <v>0.5323462554855778</v>
+      </c>
+      <c r="DQ44" t="n">
+        <v>0.5317924041215755</v>
+      </c>
+      <c r="DR44" t="n">
+        <v>0.530298124547538</v>
+      </c>
+      <c r="DS44" t="n">
+        <v>0.5283587722316729</v>
+      </c>
+      <c r="DT44" t="n">
+        <v>0.5256504347239502</v>
+      </c>
+      <c r="DU44" t="n">
+        <v>0.5240699785288427</v>
+      </c>
+      <c r="DV44" t="n">
+        <v>0.5232086457965793</v>
+      </c>
+      <c r="DW44" t="n">
+        <v>0.5234629075598386</v>
+      </c>
+      <c r="DX44" t="n">
+        <v>0.5230724229332744</v>
+      </c>
+      <c r="DY44" t="n">
+        <v>0.5221905982438264</v>
+      </c>
+      <c r="DZ44" t="n">
+        <v>0.5207250950622347</v>
+      </c>
+      <c r="EA44" t="n">
+        <v>0.5199653080775064</v>
+      </c>
+      <c r="EB44" t="n">
+        <v>0.520235925170139</v>
+      </c>
+      <c r="EC44" t="n">
+        <v>0.521292191132516</v>
+      </c>
+      <c r="ED44" t="n">
+        <v>0.5217184497809974</v>
+      </c>
+      <c r="EE44" t="n">
+        <v>0.5213314990836829</v>
+      </c>
+      <c r="EF44" t="n">
+        <v>0.5203701869290853</v>
+      </c>
+      <c r="EG44" t="n">
+        <v>0.520491162449963</v>
+      </c>
+      <c r="EH44" t="n">
+        <v>0.5214892099511361</v>
+      </c>
+      <c r="EI44" t="n">
+        <v>0.5232692422487422</v>
+      </c>
+      <c r="EJ44" t="n">
+        <v>0.5242943576919358</v>
+      </c>
+      <c r="EK44" t="n">
+        <v>0.5244293998937555</v>
+      </c>
+      <c r="EL44" t="n">
+        <v>0.5237916691141956</v>
+      </c>
+      <c r="EM44" t="n">
+        <v>0.5238014497468968</v>
+      </c>
+      <c r="EN44" t="n">
+        <v>0.5247008485450052</v>
+      </c>
+      <c r="EO44" t="n">
+        <v>0.5260758252358809</v>
+      </c>
+      <c r="EP44" t="n">
+        <v>0.5266511001869045</v>
+      </c>
+      <c r="EQ44" t="n">
+        <v>0.526161321877629</v>
+      </c>
+      <c r="ER44" t="n">
+        <v>0.5255148192065271</v>
+      </c>
+      <c r="ES44" t="n">
+        <v>0.5256328750234148</v>
+      </c>
+      <c r="ET44" t="n">
+        <v>0.5271526916180598</v>
+      </c>
+      <c r="EU44" t="n">
+        <v>0.5290970704969812</v>
+      </c>
+      <c r="EV44" t="n">
+        <v>0.5307799508305026</v>
+      </c>
+      <c r="EW44" t="n">
+        <v>0.5313945203326115</v>
+      </c>
+      <c r="EX44" t="n">
+        <v>0.5318984761350289</v>
+      </c>
+      <c r="EY44" t="n">
+        <v>0.5329308851916376</v>
+      </c>
+      <c r="EZ44" t="n">
+        <v>0.5355752005662263</v>
+      </c>
+      <c r="FA44" t="n">
+        <v>0.5386666873101733</v>
+      </c>
+      <c r="FB44" t="n">
+        <v>0.541745125067101</v>
+      </c>
+      <c r="FC44" t="n">
+        <v>0.5439340585899357</v>
+      </c>
+      <c r="FD44" t="n">
+        <v>0.5466034376484827</v>
+      </c>
+      <c r="FE44" t="n">
+        <v>0.550474637026556</v>
+      </c>
+      <c r="FF44" t="n">
+        <v>0.556751628529593</v>
+      </c>
+      <c r="FG44" t="n">
+        <v>0.5645835381200189</v>
+      </c>
+      <c r="FH44" t="n">
+        <v>0.573467768909391</v>
+      </c>
+      <c r="FI44" t="n">
+        <v>0.5827571430953015</v>
+      </c>
+      <c r="FJ44" t="n">
+        <v>0.5934451582659268</v>
+      </c>
+      <c r="FK44" t="n">
+        <v>0.6069194517423727</v>
+      </c>
+      <c r="FL44" t="n">
+        <v>0.6231562065338008</v>
+      </c>
+      <c r="FM44" t="n">
+        <v>0.6422730626841681</v>
+      </c>
+      <c r="FN44" t="n">
+        <v>0.6621828232530999</v>
+      </c>
+      <c r="FO44" t="n">
+        <v>0.6826807947148916</v>
+      </c>
+      <c r="FP44" t="n">
+        <v>0.7036670168217943</v>
+      </c>
+      <c r="FQ44" t="n">
+        <v>0.7267125059864423</v>
+      </c>
+      <c r="FR44" t="n">
+        <v>0.7512357639741625</v>
+      </c>
+      <c r="FS44" t="n">
+        <v>0.7755270862552239</v>
+      </c>
+      <c r="FT44" t="n">
+        <v>0.7954075236407553</v>
+      </c>
+      <c r="FU44" t="n">
+        <v>0.8074220191847544</v>
+      </c>
+      <c r="FV44" t="n">
+        <v>0.8121793584460769</v>
+      </c>
+      <c r="FW44" t="n">
+        <v>0.8141416196367475</v>
+      </c>
+      <c r="FX44" t="n">
+        <v>0.816874177067528</v>
+      </c>
+      <c r="FY44" t="n">
+        <v>0.8215405120819697</v>
+      </c>
+      <c r="FZ44" t="n">
+        <v>0.8258541054684431</v>
+      </c>
+      <c r="GA44" t="n">
+        <v>0.8291076160082861</v>
+      </c>
+      <c r="GB44" t="n">
+        <v>0.8315672382315827</v>
+      </c>
+      <c r="GC44" t="n">
+        <v>0.8356625625139581</v>
+      </c>
+      <c r="GD44" t="n">
+        <v>0.8413088556769518</v>
+      </c>
+      <c r="GE44" t="n">
+        <v>0.8481103707366104</v>
+      </c>
+      <c r="GF44" t="n">
+        <v>0.8535163082658491</v>
+      </c>
+      <c r="GG44" t="n">
+        <v>0.857071945270408</v>
+      </c>
+      <c r="GH44" t="n">
+        <v>0.858362953474234</v>
+      </c>
+      <c r="GI44" t="n">
+        <v>0.8584287013040645</v>
+      </c>
+      <c r="GJ44" t="n">
+        <v>0.8579911610776391</v>
+      </c>
+      <c r="GK44" t="n">
+        <v>0.8565834553787757</v>
+      </c>
+      <c r="GL44" t="n">
+        <v>0.8544540780957482</v>
+      </c>
+      <c r="GM44" t="n">
+        <v>0.8511914800443199</v>
+      </c>
+      <c r="GN44" t="n">
+        <v>0.8490323417511431</v>
+      </c>
+      <c r="GO44" t="n">
+        <v>0.8493281199142723</v>
+      </c>
+      <c r="GP44" t="n">
+        <v>0.8537916745685273</v>
+      </c>
+      <c r="GQ44" t="n">
+        <v>0.8608048813319417</v>
+      </c>
+      <c r="GR44" t="n">
+        <v>0.8689221524978474</v>
+      </c>
+      <c r="GS44" t="n">
+        <v>0.8761339303242829</v>
+      </c>
+      <c r="GT44" t="n">
+        <v>0.8832890394786017</v>
+      </c>
+      <c r="GU44" t="n">
+        <v>0.8904150064364332</v>
+      </c>
+      <c r="GV44" t="n">
+        <v>0.8975775971199105</v>
+      </c>
+      <c r="GW44" t="n">
+        <v>0.902804630789595</v>
+      </c>
+      <c r="GX44" t="n">
+        <v>0.9049497543180506</v>
+      </c>
+      <c r="GY44" t="n">
+        <v>0.9026193004937442</v>
+      </c>
+      <c r="GZ44" t="n">
+        <v>0.8971480714117167</v>
+      </c>
+      <c r="HA44" t="n">
+        <v>0.8893976375445253</v>
+      </c>
+      <c r="HB44" t="n">
+        <v>0.8809613937855408</v>
+      </c>
+      <c r="HC44" t="n">
+        <v>0.8712505664589941</v>
+      </c>
+      <c r="HD44" t="n">
+        <v>0.8600556576836793</v>
+      </c>
+      <c r="HE44" t="n">
+        <v>0.8472042720231979</v>
+      </c>
+      <c r="HF44" t="n">
+        <v>0.8341028203122353</v>
+      </c>
+      <c r="HG44" t="n">
+        <v>0.822483449744725</v>
+      </c>
+      <c r="HH44" t="n">
+        <v>0.8133481851709358</v>
+      </c>
+      <c r="HI44" t="n">
+        <v>0.8056019990035967</v>
+      </c>
+      <c r="HJ44" t="n">
+        <v>0.7981852345591338</v>
+      </c>
+      <c r="HK44" t="n">
+        <v>0.7903054010327494</v>
+      </c>
+      <c r="HL44" t="n">
+        <v>0.7829933780934509</v>
+      </c>
+      <c r="HM44" t="n">
+        <v>0.7770232717039058</v>
+      </c>
+      <c r="HN44" t="n">
+        <v>0.7736008989914922</v>
+      </c>
+      <c r="HO44" t="n">
+        <v>0.771847229229692</v>
+      </c>
+      <c r="HP44" t="n">
+        <v>0.7706581863663161</v>
+      </c>
+      <c r="HQ44" t="n">
+        <v>0.7693206042659283</v>
+      </c>
+      <c r="HR44" t="n">
+        <v>0.7688664278078152</v>
+      </c>
+      <c r="HS44" t="n">
+        <v>0.7699406246060793</v>
+      </c>
+      <c r="HT44" t="n">
+        <v>0.7732803367668177</v>
+      </c>
+      <c r="HU44" t="n">
+        <v>0.7773526495598626</v>
+      </c>
+      <c r="HV44" t="n">
+        <v>0.781359474094835</v>
+      </c>
+      <c r="HW44" t="n">
+        <v>0.7841507592320944</v>
+      </c>
+      <c r="HX44" t="n">
+        <v>0.7872481085959989</v>
+      </c>
+      <c r="HY44" t="n">
+        <v>0.7918698817824797</v>
+      </c>
+      <c r="HZ44" t="n">
+        <v>0.799034404330961</v>
+      </c>
+      <c r="IA44" t="n">
+        <v>0.8072262428313128</v>
+      </c>
+      <c r="IB44" t="n">
+        <v>0.8159240852652065</v>
+      </c>
+      <c r="IC44" t="n">
+        <v>0.8239676295603581</v>
+      </c>
+      <c r="ID44" t="n">
+        <v>0.8326816627655762</v>
+      </c>
+      <c r="IE44" t="n">
+        <v>0.842657392881383</v>
+      </c>
+      <c r="IF44" t="n">
+        <v>0.8545945075396021</v>
+      </c>
+      <c r="IG44" t="n">
+        <v>0.8676604355244657</v>
+      </c>
+      <c r="IH44" t="n">
+        <v>0.8801907512046159</v>
+      </c>
+      <c r="II44" t="n">
+        <v>0.8906623819569315</v>
+      </c>
+      <c r="IJ44" t="n">
+        <v>0.8998030671895478</v>
+      </c>
+      <c r="IK44" t="n">
+        <v>0.9078143722772513</v>
+      </c>
+      <c r="IL44" t="n">
+        <v>0.9155387229132473</v>
+      </c>
+      <c r="IM44" t="n">
+        <v>0.9210712736270059</v>
+      </c>
+      <c r="IN44" t="n">
+        <v>0.924174069167905</v>
+      </c>
+      <c r="IO44" t="n">
+        <v>0.9232787902902952</v>
+      </c>
+      <c r="IP44" t="n">
+        <v>0.921081621802272</v>
+      </c>
+      <c r="IQ44" t="n">
+        <v>0.918738036336939</v>
+      </c>
+      <c r="IR44" t="n">
+        <v>0.9188274572560219</v>
+      </c>
+      <c r="IS44" t="n">
+        <v>0.9196504506216798</v>
+      </c>
+      <c r="IT44" t="n">
+        <v>0.920397653737659</v>
+      </c>
+      <c r="IU44" t="n">
+        <v>0.9191304348159044</v>
+      </c>
+      <c r="IV44" t="n">
+        <v>0.9168931564589247</v>
+      </c>
+      <c r="IW44" t="n">
+        <v>0.9135657783926486</v>
+      </c>
+      <c r="IX44" t="n">
+        <v>0.9098500800755907</v>
+      </c>
+      <c r="IY44" t="n">
+        <v>0.9035447851918239</v>
+      </c>
+      <c r="IZ44" t="n">
+        <v>0.8941635422995425</v>
+      </c>
+      <c r="JA44" t="n">
+        <v>0.8804666357436337</v>
+      </c>
+      <c r="JB44" t="n">
+        <v>0.8653292427809878</v>
+      </c>
+      <c r="JC44" t="n">
+        <v>0.8497108127716198</v>
+      </c>
+      <c r="JD44" t="n">
+        <v>0.8361824130182889</v>
+      </c>
+      <c r="JE44" t="n">
+        <v>0.823162555972952</v>
+      </c>
+      <c r="JF44" t="n">
+        <v>0.8107707376163674</v>
+      </c>
+      <c r="JG44" t="n">
+        <v>0.7982057685654654</v>
+      </c>
+      <c r="JH44" t="n">
+        <v>0.7870854456651758</v>
+      </c>
+      <c r="JI44" t="n">
+        <v>0.7784297987487829</v>
+      </c>
+      <c r="JJ44" t="n">
+        <v>0.7731694368297137</v>
+      </c>
+      <c r="JK44" t="n">
+        <v>0.7701616092245465</v>
+      </c>
+      <c r="JL44" t="n">
+        <v>0.768540050510056</v>
+      </c>
+      <c r="JM44" t="n">
+        <v>0.7673285723909792</v>
+      </c>
+      <c r="JN44" t="n">
+        <v>0.7671583382752564</v>
+      </c>
+      <c r="JO44" t="n">
+        <v>0.7691611320602194</v>
+      </c>
+      <c r="JP44" t="n">
+        <v>0.7737282066409773</v>
+      </c>
+      <c r="JQ44" t="n">
+        <v>0.7805759924367027</v>
+      </c>
+      <c r="JR44" t="n">
+        <v>0.7878450538388334</v>
+      </c>
+      <c r="JS44" t="n">
+        <v>0.7949550475474705</v>
+      </c>
+      <c r="JT44" t="n">
+        <v>0.8012856928252825</v>
+      </c>
+      <c r="JU44" t="n">
+        <v>0.8074733542431177</v>
+      </c>
+      <c r="JV44" t="n">
+        <v>0.8137954470378537</v>
+      </c>
+      <c r="JW44" t="n">
+        <v>0.8195284912384487</v>
+      </c>
+      <c r="JX44" t="n">
+        <v>0.8237623045251914</v>
+      </c>
+      <c r="JY44" t="n">
+        <v>0.8258391508373802</v>
+      </c>
+      <c r="JZ44" t="n">
+        <v>0.8271900934739872</v>
+      </c>
+      <c r="KA44" t="n">
+        <v>0.8297647874886247</v>
+      </c>
+      <c r="KB44" t="n">
+        <v>0.834726237452397</v>
+      </c>
+      <c r="KC44" t="n">
+        <v>0.8415321860482623</v>
+      </c>
+      <c r="KD44" t="n">
+        <v>0.8481443300460453</v>
+      </c>
+      <c r="KE44" t="n">
+        <v>0.8534645383805813</v>
+      </c>
+      <c r="KF44" t="n">
+        <v>0.8587077734310347</v>
+      </c>
+      <c r="KG44" t="n">
+        <v>0.865429453145939</v>
+      </c>
+      <c r="KH44" t="n">
+        <v>0.8740686330752239</v>
+      </c>
+      <c r="KI44" t="n">
+        <v>0.883562752196872</v>
+      </c>
+      <c r="KJ44" t="n">
+        <v>0.8920183571256713</v>
+      </c>
+      <c r="KK44" t="n">
+        <v>0.8988701729881825</v>
+      </c>
+      <c r="KL44" t="n">
+        <v>0.9038617363129041</v>
+      </c>
+      <c r="KM44" t="n">
+        <v>0.909437978516156</v>
+      </c>
+      <c r="KN44" t="n">
+        <v>0.9159538918131455</v>
+      </c>
+      <c r="KO44" t="n">
+        <v>0.9243376984184589</v>
+      </c>
+      <c r="KP44" t="n">
+        <v>0.9316138577039591</v>
+      </c>
+      <c r="KQ44" t="n">
+        <v>0.9373481741894287</v>
+      </c>
+      <c r="KR44" t="n">
+        <v>0.9420238927860879</v>
+      </c>
+      <c r="KS44" t="n">
+        <v>0.9476528366927616</v>
+      </c>
+      <c r="KT44" t="n">
+        <v>0.9546781766269539</v>
+      </c>
+      <c r="KU44" t="n">
+        <v>0.9624908451038692</v>
+      </c>
+      <c r="KV44" t="n">
+        <v>0.9692606878366078</v>
+      </c>
+      <c r="KW44" t="n">
+        <v>0.9752114319010616</v>
+      </c>
+      <c r="KX44" t="n">
+        <v>0.9801542881121966</v>
+      </c>
+      <c r="KY44" t="n">
+        <v>0.9854833332799157</v>
+      </c>
+      <c r="KZ44" t="n">
+        <v>0.991459452212325</v>
+      </c>
+      <c r="LA44" t="n">
+        <v>0.9970215866390557</v>
+      </c>
+      <c r="LB44" t="n">
+        <v>1.0005435969267453</v>
+      </c>
+      <c r="LC44" t="n">
+        <v>1.0012327637903642</v>
+      </c>
+      <c r="LD44" t="n">
+        <v>0.9996904308239352</v>
+      </c>
+      <c r="LE44" t="n">
+        <v>0.9977944768169228</v>
+      </c>
+      <c r="LF44" t="n">
+        <v>0.9960731875761492</v>
+      </c>
+      <c r="LG44" t="n">
+        <v>0.9944167745076284</v>
+      </c>
+      <c r="LH44" t="n">
+        <v>0.9910494781773506</v>
+      </c>
+      <c r="LI44" t="n">
+        <v>0.9863013983169351</v>
+      </c>
+      <c r="LJ44" t="n">
+        <v>0.9812355159892099</v>
+      </c>
+      <c r="LK44" t="n">
+        <v>0.9788271564315193</v>
+      </c>
+      <c r="LL44" t="n">
+        <v>0.9795464065164567</v>
+      </c>
+      <c r="LM44" t="n">
+        <v>0.9833967192644614</v>
+      </c>
+      <c r="LN44" t="n">
+        <v>0.9883950936840468</v>
+      </c>
+      <c r="LO44" t="n">
+        <v>0.9949361634961477</v>
+      </c>
+      <c r="LP44" t="n">
+        <v>1.0034987290090138</v>
+      </c>
+      <c r="LQ44" t="n">
+        <v>1.016294599546529</v>
+      </c>
+      <c r="LR44" t="n">
+        <v>1.0334786490241321</v>
+      </c>
+      <c r="LS44" t="n">
+        <v>1.0552170582627276</v>
+      </c>
+      <c r="LT44" t="n">
+        <v>1.0798266893341741</v>
+      </c>
+      <c r="LU44" t="n">
+        <v>1.105497630043296</v>
+      </c>
+      <c r="LV44" t="n">
+        <v>1.13178108102846</v>
+      </c>
+      <c r="LW44" t="n">
+        <v>1.1590355955119271</v>
+      </c>
+      <c r="LX44" t="n">
+        <v>1.1878232713615915</v>
+      </c>
+      <c r="LY44" t="n">
+        <v>1.2179998289127105</v>
+      </c>
+      <c r="LZ44" t="n">
+        <v>1.2488748808859376</v>
+      </c>
+      <c r="MA44" t="n">
+        <v>1.2793190428568395</v>
+      </c>
+      <c r="MB44" t="n">
+        <v>1.3092982779356923</v>
+      </c>
+      <c r="MC44" t="n">
+        <v>1.338178363012005</v>
+      </c>
+      <c r="MD44" t="n">
+        <v>1.3640480828199981</v>
+      </c>
+      <c r="ME44" t="n">
+        <v>1.384875254045505</v>
+      </c>
+      <c r="MF44" t="n">
+        <v>1.3986447193080023</v>
+      </c>
+      <c r="MG44" t="n">
+        <v>1.405490453570337</v>
+      </c>
+      <c r="MH44" t="n">
+        <v>1.4100701110941196</v>
+      </c>
+      <c r="MI44" t="n">
+        <v>1.4165288046247853</v>
+      </c>
+      <c r="MJ44" t="n">
+        <v>1.4270377218770565</v>
+      </c>
+      <c r="MK44" t="n">
+        <v>1.4400118259598016</v>
+      </c>
+      <c r="ML44" t="n">
+        <v>1.4521457556293706</v>
+      </c>
+      <c r="MM44" t="n">
+        <v>1.4606661853503256</v>
+      </c>
+      <c r="MN44" t="n">
+        <v>1.4644090774192566</v>
+      </c>
+      <c r="MO44" t="n">
+        <v>1.4657741267405644</v>
+      </c>
+      <c r="MP44" t="n">
+        <v>1.4652110543002734</v>
+      </c>
+      <c r="MQ44" t="n">
+        <v>1.464044880281676</v>
+      </c>
+      <c r="MR44" t="n">
+        <v>1.460384484252462</v>
+      </c>
+      <c r="MS44" t="n">
+        <v>1.4555709941934036</v>
+      </c>
+      <c r="MT44" t="n">
+        <v>1.449854949239009</v>
+      </c>
+      <c r="MU44" t="n">
+        <v>1.446395566770066</v>
+      </c>
+      <c r="MV44" t="n">
+        <v>1.445144217073969</v>
+      </c>
+      <c r="MW44" t="n">
+        <v>1.4466309707613703</v>
+      </c>
+      <c r="MX44" t="n">
+        <v>1.4482308780035935</v>
+      </c>
+      <c r="MY44" t="n">
+        <v>1.4493788001233237</v>
+      </c>
+      <c r="MZ44" t="n">
+        <v>1.4497958083103557</v>
+      </c>
+      <c r="NA44" t="n">
+        <v>1.451326061327929</v>
+      </c>
+      <c r="NB44" t="n">
+        <v>1.4542433607491063</v>
+      </c>
+      <c r="NC44" t="n">
+        <v>1.4580260360404744</v>
+      </c>
+      <c r="ND44" t="n">
+        <v>1.4600192111054833</v>
+      </c>
+      <c r="NE44" t="n">
+        <v>1.4595906122839846</v>
+      </c>
+      <c r="NF44" t="n">
+        <v>1.4576499844758866</v>
+      </c>
+      <c r="NG44" t="n">
+        <v>1.4563775242797292</v>
+      </c>
+      <c r="NH44" t="n">
+        <v>1.457523284144983</v>
+      </c>
+      <c r="NI44" t="n">
+        <v>1.4591219631166192</v>
+      </c>
+      <c r="NJ44" t="n">
+        <v>1.4599176384841828</v>
+      </c>
+      <c r="NK44" t="n">
+        <v>1.457759447092163</v>
+      </c>
+      <c r="NL44" t="n">
+        <v>1.4547267058347708</v>
+      </c>
+      <c r="NM44" t="n">
+        <v>1.4526412316318937</v>
+      </c>
+      <c r="NN44" t="n">
+        <v>1.4529291874396366</v>
+      </c>
+      <c r="NO44" t="n">
+        <v>1.4546774305532917</v>
+      </c>
+      <c r="NP44" t="n">
+        <v>1.4556113855189032</v>
+      </c>
+      <c r="NQ44" t="n">
+        <v>1.4546242870548496</v>
+      </c>
+      <c r="NR44" t="n">
+        <v>1.4527102776159881</v>
+      </c>
+      <c r="NS44" t="n">
+        <v>1.4521739316087916</v>
+      </c>
+      <c r="NT44" t="n">
+        <v>1.4540357079365487</v>
+      </c>
+      <c r="NU44" t="n">
+        <v>1.4571815181865833</v>
+      </c>
+      <c r="NV44" t="n">
+        <v>1.4592358036331787</v>
+      </c>
+      <c r="NW44" t="n">
+        <v>1.4596198210973292</v>
+      </c>
+      <c r="NX44" t="n">
+        <v>1.4587892224079508</v>
+      </c>
+      <c r="NY44" t="n">
+        <v>1.4596472780351308</v>
+      </c>
+      <c r="NZ44" t="n">
+        <v>1.462470515917126</v>
+      </c>
+      <c r="OA44" t="n">
+        <v>1.4661351260657394</v>
+      </c>
+      <c r="OB44" t="n">
+        <v>1.4677484109806858</v>
+      </c>
+      <c r="OC44" t="n">
+        <v>1.4665402708554416</v>
+      </c>
+      <c r="OD44" t="n">
+        <v>1.462887259544918</v>
+      </c>
+      <c r="OE44" t="n">
+        <v>1.459132344594512</v>
+      </c>
+      <c r="OF44" t="n">
+        <v>1.4557900418413756</v>
+      </c>
+      <c r="OG44" t="n">
+        <v>1.4522410041988267</v>
+      </c>
+      <c r="OH44" t="n">
+        <v>1.4461260295903093</v>
+      </c>
+      <c r="OI44" t="n">
+        <v>1.4364066572849918</v>
+      </c>
+      <c r="OJ44" t="n">
+        <v>1.4249344424393036</v>
+      </c>
+      <c r="OK44" t="n">
+        <v>1.4137932734045335</v>
+      </c>
+      <c r="OL44" t="n">
+        <v>1.4039885415021176</v>
+      </c>
+      <c r="OM44" t="n">
+        <v>1.3942780369615375</v>
+      </c>
+      <c r="ON44" t="n">
+        <v>1.3825452424356586</v>
+      </c>
+      <c r="OO44" t="n">
+        <v>1.3686351037441014</v>
+      </c>
+      <c r="OP44" t="n">
+        <v>1.3533356801694874</v>
+      </c>
+      <c r="OQ44" t="n">
+        <v>1.33887889459011</v>
+      </c>
+      <c r="OR44" t="n">
+        <v>1.326461865702935</v>
+      </c>
+      <c r="OS44" t="n">
+        <v>1.3154370234945794</v>
+      </c>
+      <c r="OT44" t="n">
+        <v>1.3033932108514974</v>
+      </c>
+      <c r="OU44" t="n">
+        <v>1.2899724080986883</v>
+      </c>
+      <c r="OV44" t="n">
+        <v>1.2757677594449008</v>
+      </c>
+      <c r="OW44" t="n">
+        <v>1.2635796154211045</v>
+      </c>
+      <c r="OX44" t="n">
+        <v>1.2532392729212742</v>
+      </c>
+      <c r="OY44" t="n">
+        <v>1.244253800901107</v>
+      </c>
+      <c r="OZ44" t="n">
+        <v>1.2340298160527428</v>
+      </c>
+      <c r="PA44" t="n">
+        <v>1.222281595474743</v>
+      </c>
+      <c r="PB44" t="n">
+        <v>1.2089436101163864</v>
+      </c>
+      <c r="PC44" t="n">
+        <v>1.1964056942366739</v>
+      </c>
+      <c r="PD44" t="n">
+        <v>1.184758778188469</v>
+      </c>
+      <c r="PE44" t="n">
+        <v>1.1728958120229827</v>
+      </c>
+      <c r="PF44" t="n">
+        <v>1.158593766890544</v>
+      </c>
+      <c r="PG44" t="n">
+        <v>1.1414658055081688</v>
+      </c>
+      <c r="PH44" t="n">
+        <v>1.1218279345353954</v>
+      </c>
+      <c r="PI44" t="n">
+        <v>1.101899075958037</v>
+      </c>
+      <c r="PJ44" t="n">
+        <v>1.0832084535317095</v>
+      </c>
+      <c r="PK44" t="n">
+        <v>1.065830238677086</v>
+      </c>
+      <c r="PL44" t="n">
+        <v>1.047816507811487</v>
+      </c>
+      <c r="PM44" t="n">
+        <v>1.0293313445190193</v>
+      </c>
+      <c r="PN44" t="n">
+        <v>1.0113765480793244</v>
+      </c>
+      <c r="PO44" t="n">
+        <v>0.9958253140705128</v>
+      </c>
+      <c r="PP44" t="n">
+        <v>0.9835540337797369</v>
+      </c>
+      <c r="PQ44" t="n">
+        <v>0.9736085877626873</v>
+      </c>
+      <c r="PR44" t="n">
+        <v>0.9641929916859279</v>
+      </c>
+      <c r="PS44" t="n">
+        <v>0.9545127503818442</v>
+      </c>
+      <c r="PT44" t="n">
+        <v>0.9449406872211749</v>
+      </c>
+      <c r="PU44" t="n">
+        <v>0.9373477263125141</v>
+      </c>
+      <c r="PV44" t="n">
+        <v>0.9323163989267162</v>
+      </c>
+      <c r="PW44" t="n">
+        <v>0.9289989095240488</v>
+      </c>
+      <c r="PX44" t="n">
+        <v>0.9255056657646847</v>
+      </c>
+      <c r="PY44" t="n">
+        <v>0.921223903378741</v>
+      </c>
+      <c r="PZ44" t="n">
+        <v>0.9168547856955207</v>
+      </c>
+      <c r="QA44" t="n">
+        <v>0.9136451469067662</v>
+      </c>
+      <c r="QB44" t="n">
+        <v>0.9121226849546745</v>
+      </c>
+      <c r="QC44" t="n">
+        <v>0.9114421934034195</v>
+      </c>
+      <c r="QD44" t="n">
+        <v>0.910503698334499</v>
+      </c>
+      <c r="QE44" t="n">
+        <v>0.9084072701747905</v>
+      </c>
+      <c r="QF44" t="n">
+        <v>0.9061500391547062</v>
+      </c>
+      <c r="QG44" t="n">
+        <v>0.9048241682989665</v>
+      </c>
+      <c r="QH44" t="n">
+        <v>0.905534460492947</v>
+      </c>
+      <c r="QI44" t="n">
+        <v>0.9069632588116722</v>
+      </c>
+      <c r="QJ44" t="n">
+        <v>0.9084501583362975</v>
+      </c>
+      <c r="QK44" t="n">
+        <v>0.9085645608809788</v>
+      </c>
+      <c r="QL44" t="n">
+        <v>0.9085831825784922</v>
+      </c>
+      <c r="QM44" t="n">
+        <v>0.9096766045609734</v>
+      </c>
+      <c r="QN44" t="n">
+        <v>0.9126669528009993</v>
+      </c>
+      <c r="QO44" t="n">
+        <v>0.9168682217615931</v>
+      </c>
+      <c r="QP44" t="n">
+        <v>0.9208052945088335</v>
+      </c>
+      <c r="QQ44" t="n">
+        <v>0.9236645371632838</v>
+      </c>
+      <c r="QR44" t="n">
+        <v>0.9260213783854416</v>
+      </c>
+      <c r="QS44" t="n">
+        <v>0.9289670435982008</v>
+      </c>
+      <c r="QT44" t="n">
+        <v>0.9332842688217544</v>
+      </c>
+      <c r="QU44" t="n">
+        <v>0.9380851400774051</v>
+      </c>
+      <c r="QV44" t="n">
+        <v>0.9418595599193776</v>
+      </c>
+      <c r="QW44" t="n">
+        <v>0.9431481829555455</v>
+      </c>
+      <c r="QX44" t="n">
+        <v>0.9427319619796517</v>
+      </c>
+      <c r="QY44" t="n">
+        <v>0.9417637536332263</v>
+      </c>
+      <c r="QZ44" t="n">
+        <v>0.9405183131332351</v>
+      </c>
+      <c r="RA44" t="n">
+        <v>0.9382299965776073</v>
+      </c>
+      <c r="RB44" t="n">
+        <v>0.9334454771301104</v>
+      </c>
+      <c r="RC44" t="n">
+        <v>0.9254453316655933</v>
+      </c>
+      <c r="RD44" t="n">
+        <v>0.9154139779841215</v>
+      </c>
+      <c r="RE44" t="n">
+        <v>0.9049804574002482</v>
+      </c>
+      <c r="RF44" t="n">
+        <v>0.8942197435050081</v>
+      </c>
+      <c r="RG44" t="n">
+        <v>0.883649571447966</v>
+      </c>
+      <c r="RH44" t="n">
+        <v>0.8729233615470765</v>
+      </c>
+      <c r="RI44" t="n">
+        <v>0.8625587886009034</v>
+      </c>
+      <c r="RJ44" t="n">
+        <v>0.8522586917372659</v>
+      </c>
+      <c r="RK44" t="n">
+        <v>0.8429174932652623</v>
+      </c>
+      <c r="RL44" t="n">
+        <v>0.8337598008756549</v>
+      </c>
+      <c r="RM44" t="n">
+        <v>0.8256243624956126</v>
+      </c>
+      <c r="RN44" t="n">
+        <v>0.8159504678796806</v>
+      </c>
+      <c r="RO44" t="n">
+        <v>0.8058012497885816</v>
+      </c>
+      <c r="RP44" t="n">
+        <v>0.7946178969723515</v>
+      </c>
+      <c r="RQ44" t="n">
+        <v>0.7844808355862644</v>
+      </c>
+      <c r="RR44" t="n">
+        <v>0.7747310395104577</v>
+      </c>
+      <c r="RS44" t="n">
+        <v>0.765705437643441</v>
+      </c>
+      <c r="RT44" t="n">
+        <v>0.755941273494284</v>
+      </c>
+      <c r="RU44" t="n">
+        <v>0.7456687570522526</v>
+      </c>
+      <c r="RV44" t="n">
+        <v>0.7346364101380563</v>
+      </c>
+      <c r="RW44" t="n">
+        <v>0.7246026314461508</v>
+      </c>
+      <c r="RX44" t="n">
+        <v>0.7147899451549519</v>
+      </c>
+      <c r="RY44" t="n">
+        <v>0.7063497121440787</v>
+      </c>
+      <c r="RZ44" t="n">
+        <v>0.6968968544289416</v>
+      </c>
+      <c r="SA44" t="n">
+        <v>0.687749757190812</v>
+      </c>
+      <c r="SB44" t="n">
+        <v>0.6773094684689382</v>
+      </c>
+      <c r="SC44" t="n">
+        <v>0.6678836010003332</v>
+      </c>
+      <c r="SD44" t="n">
+        <v>0.6585293346371549</v>
+      </c>
+      <c r="SE44" t="n">
+        <v>0.6501130857901283</v>
+      </c>
+      <c r="SF44" t="n">
+        <v>0.6412133722247522</v>
+      </c>
+      <c r="SG44" t="n">
+        <v>0.6323671266798405</v>
+      </c>
+      <c r="SH44" t="n">
+        <v>0.6230903773389277</v>
+      </c>
+      <c r="SI44" t="n">
+        <v>0.6143723999886281</v>
+      </c>
+      <c r="SJ44" t="n">
+        <v>0.6066132304167431</v>
+      </c>
+      <c r="SK44" t="n">
+        <v>0.5994424762795103</v>
+      </c>
+      <c r="SL44" t="n">
+        <v>0.5917531434165372</v>
+      </c>
+      <c r="SM44" t="n">
+        <v>0.5836982905235099</v>
+      </c>
+      <c r="SN44" t="n">
+        <v>0.5758267723137994</v>
+      </c>
+      <c r="SO44" t="n">
+        <v>0.5692226120628425</v>
+      </c>
+      <c r="SP44" t="n">
+        <v>0.5632059380446948</v>
+      </c>
+      <c r="SQ44" t="n">
+        <v>0.5578551047744277</v>
+      </c>
+      <c r="SR44" t="n">
+        <v>0.5524932311000402</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
